--- a/LIFTOFF/YPS1009_S288C_V5/Liftoff_v5_verified_genes_summary.xlsx
+++ b/LIFTOFF/YPS1009_S288C_V5/Liftoff_v5_verified_genes_summary.xlsx
@@ -94,16 +94,16 @@
     <t>[]</t>
   </si>
   <si>
-    <t>['YOR255W', 'YOR246C', 'YOR247W']</t>
-  </si>
-  <si>
-    <t>['YGL133W', 'YGL134W', 'YGL137W', 'YGL136C']</t>
-  </si>
-  <si>
-    <t>['YLR160C', 'YLR158C', 'YLR154W-C', 'YLR157C', 'YLR155C']</t>
-  </si>
-  <si>
-    <t>['YNL328C', 'YNL329C', 'YNL327W', 'YNL323W', 'YNL325C', 'YNL326C', 'YNL330C']</t>
+    <t>['YOR246C', 'YOR247W', 'YOR255W']</t>
+  </si>
+  <si>
+    <t>['YGL136C', 'YGL137W', 'YGL134W', 'YGL133W']</t>
+  </si>
+  <si>
+    <t>['YLR155C', 'YLR160C', 'YLR154W-C', 'YLR157C', 'YLR158C']</t>
+  </si>
+  <si>
+    <t>['YNL326C', 'YNL330C', 'YNL327W', 'YNL328C', 'YNL323W', 'YNL329C', 'YNL325C']</t>
   </si>
   <si>
     <t>['YCR105W']</t>
@@ -112,46 +112,46 @@
     <t>['Q0160']</t>
   </si>
   <si>
-    <t>[('YDR545W', [5], ['1']), ('YDL244W', [6], ['1']), ('YDL248W', [13], ['0']), ('YDR385W', [15], ['1']), ('YDR542W', [1], ['1'])]</t>
+    <t>[('YDR545W', [5], ['1']), ('YDR542W', [1], ['1']), ('YDL244W', [6], ['1']), ('YDR385W', [15], ['1']), ('YDL248W', [13], ['0'])]</t>
   </si>
   <si>
     <t>[('YOR390W', [16], ['1']), ('YOR394W', [16], ['0']), ('YOR133W', [4], ['0'])]</t>
   </si>
   <si>
-    <t>[('YGL053W', [1], ['1']), ('YGL135W', [16], ['1']), ('YGR296W', [5], ['1']), ('YGL263W', [12, 12], ['0', '1']), ('YGL051W', [1], ['1']), ('YGR294W', [2, 2], ['1', '1'])]</t>
-  </si>
-  <si>
-    <t>[('YLR466W', [5], ['0']), ('YLR467W', [5], ['1']), ('YLR461W', [1], ['1'])]</t>
-  </si>
-  <si>
-    <t>[('YPL279C', [15], ['1']), ('YPL283C', [5], ['1']), ('YPL281C', [15], ['1']), ('YPR204W', [5], ['1']), ('YPL280W', [15], ['1'])]</t>
-  </si>
-  <si>
-    <t>[('YMR325W', [15, 16], ['1', '1']), ('YML132W', [10], ['0']), ('YMR323W', [15, 16], ['1', '0']), ('YMR105C', [11], ['1']), ('YMR322C', [15, 16], ['1', '1'])]</t>
-  </si>
-  <si>
-    <t>[('YBL111C', [5], ['0']), ('YBL108C-A', [8, 12, 12], ['1', '1', '1']), ('YBR302C', [10], ['0'])]</t>
-  </si>
-  <si>
-    <t>[('YNL335W', [10], ['1']), ('YNL332W', [10], ['1']), ('YNL336W', [10], ['0']), ('YNL333W', [10], ['1']), ('YNR076W', [12], ['1']), ('YNL334C', [10], ['1']), ('YNL339C', [5], ['1']), ('YNL331C', [4], ['0'])]</t>
-  </si>
-  <si>
-    <t>[('YJR158W', [4], ['1']), ('YJL223C', [9], ['1']), ('YJR160C', [4], ['1']), ('YJR161C', [13], ['0']), ('YJR159W', [4], ['1'])]</t>
-  </si>
-  <si>
-    <t>[('YKL224C', [9], ['1']), ('YKR106W', [3], ['1'])]</t>
-  </si>
-  <si>
-    <t>[('YHL048W', [9], ['0']), ('YHR211W', [1], ['1']), ('YHR216W', [1], ['1']), ('YHR215W', [1], ['1'])]</t>
-  </si>
-  <si>
-    <t>[('YCR104W', [16], ['1']), ('YCR106W', [15], ['0']), ('YCL069W', [11], ['0']), ('YCR107W', [6], ['0'])]</t>
-  </si>
-  <si>
-    <t>[('YFL059W', [10], ['1']), ('YFL058W', [4, 10], ['1', '1']), ('YFL061W', [10], ['1']), ('YFL060C', [10], ['1']), ('YFL062W', [10], ['0'])]</t>
-  </si>
-  <si>
-    <t>[('YAR027W', [7], ['0']), ('YAL068C', [7, 10], ['1', '1'])]</t>
+    <t>[('YGR294W', [2, 2], ['1', '1']), ('YGL053W', [1], ['1']), ('YGL263W', [12, 12], ['0', '1']), ('YGL051W', [1], ['1']), ('YGL135W', [16], ['1']), ('YGR296W', [5], ['1'])]</t>
+  </si>
+  <si>
+    <t>[('YLR461W', [1], ['1']), ('YLR467W', [5], ['1']), ('YLR466W', [5], ['0'])]</t>
+  </si>
+  <si>
+    <t>[('YPR204W', [5], ['1']), ('YPL280W', [15], ['1']), ('YPL279C', [15], ['1']), ('YPL283C', [5], ['1']), ('YPL281C', [15], ['1'])]</t>
+  </si>
+  <si>
+    <t>[('YML132W', [10], ['0']), ('YMR322C', [15, 16], ['1', '1']), ('YMR323W', [15, 16], ['1', '0']), ('YMR105C', [11], ['1']), ('YMR325W', [15, 16], ['1', '1'])]</t>
+  </si>
+  <si>
+    <t>[('YBR302C', [10], ['0']), ('YBL108C-A', [8, 12, 12], ['1', '1', '1']), ('YBL111C', [5], ['0'])]</t>
+  </si>
+  <si>
+    <t>[('YNL336W', [10], ['0']), ('YNL333W', [10], ['1']), ('YNL331C', [4], ['0']), ('YNL335W', [10], ['1']), ('YNR076W', [12], ['1']), ('YNL339C', [5], ['1']), ('YNL332W', [10], ['1']), ('YNL334C', [10], ['1'])]</t>
+  </si>
+  <si>
+    <t>[('YJR161C', [13], ['0']), ('YJR159W', [4], ['1']), ('YJR158W', [4], ['1']), ('YJL223C', [9], ['1']), ('YJR160C', [4], ['1'])]</t>
+  </si>
+  <si>
+    <t>[('YKR106W', [3], ['1']), ('YKL224C', [9], ['1'])]</t>
+  </si>
+  <si>
+    <t>[('YHR216W', [1], ['1']), ('YHL048W', [9], ['0']), ('YHR211W', [1], ['1']), ('YHR215W', [1], ['1'])]</t>
+  </si>
+  <si>
+    <t>[('YCR107W', [6], ['0']), ('YCR104W', [16], ['1']), ('YCL069W', [11], ['0']), ('YCR106W', [15], ['0'])]</t>
+  </si>
+  <si>
+    <t>[('YFL058W', [4, 10], ['1', '1']), ('YFL062W', [10], ['0']), ('YFL060C', [10], ['1']), ('YFL059W', [10], ['1']), ('YFL061W', [10], ['1'])]</t>
+  </si>
+  <si>
+    <t>[('YAL068C', [7, 10], ['1', '1']), ('YAR027W', [7], ['0'])]</t>
   </si>
 </sst>
 </file>
